--- a/export/template/年度単位の集計表model.xlsx
+++ b/export/template/年度単位の集計表model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZX\simpleui\export\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1135C8-A9F7-4193-9EED-9BB9C013E482}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B483E6A-C8A1-4101-9378-26A06B395419}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="716" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" tabRatio="716" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年度単位の集計表" sheetId="33" r:id="rId1"/>
@@ -134,7 +134,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -203,13 +203,119 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -246,12 +352,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -261,23 +361,38 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="55" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="55" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -620,7 +735,7 @@
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -629,14 +744,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="20"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="A1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="9" t="s">
@@ -645,34 +760,34 @@
       <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="24"/>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="4"/>
@@ -842,7 +957,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/export/template/年度単位の集計表model.xlsx
+++ b/export/template/年度単位の集計表model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZX\simpleui\export\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B483E6A-C8A1-4101-9378-26A06B395419}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9C15D0-992D-4DC7-941B-954E5C876590}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" tabRatio="716" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,13 +126,25 @@
       <name val="ＭＳ Ｐゴシック"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -223,23 +235,23 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -247,19 +259,6 @@
         <color indexed="64"/>
       </left>
       <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -272,6 +271,21 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -282,22 +296,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thick">
         <color indexed="64"/>
       </right>
@@ -343,56 +353,56 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="55" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="55" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="55" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="55" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -735,7 +745,7 @@
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -744,23 +754,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="15"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
+      <c r="A1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="17" t="s">
@@ -775,19 +785,19 @@
       <c r="G2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="11"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="24"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="4"/>

--- a/export/template/年度単位の集計表model.xlsx
+++ b/export/template/年度単位の集計表model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZX\simpleui\export\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9C15D0-992D-4DC7-941B-954E5C876590}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A1B118-C220-43F2-B598-DEE07EDF5F00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" tabRatio="716" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,7 +126,7 @@
       <name val="ＭＳ Ｐゴシック"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,6 +145,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -353,55 +359,55 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="55" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="55" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="55" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="55" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="55" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="55" fontId="4" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -745,7 +751,7 @@
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -754,50 +760,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="9"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13"/>
+      <c r="A1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="19"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="4"/>
